--- a/oop_output.xlsx
+++ b/oop_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,256 +436,420 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>ProductName</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Image</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ReviewCount</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Rating</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PriceCurrency</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Availability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Style</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Volume</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ABV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Malt</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Origin</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Brewer</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Allergens</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Hops</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>NutritionalValues</t>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Intensity</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Sweetness</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Acidity</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Bitterness</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Umami</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ProductURL</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Affligem Blond - 2L SUB Keg</t>
+          <t>Amstel -  2L SUB Keg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>https://www.beerwulf.com/globalassets/amstel-torp----2l-keg_1_02.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Blond Beer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lager</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>2 Litres</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Affligem', 'Brouwerij']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>The Netherlands</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Amstel</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/amstel-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Delirium Tremens - 2L SUB Keg</t>
+          <t>Heineken - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19.79</t>
+          <t>https://www.beerwulf.com/globalassets/catalog/beerwulf/beers/torps/full-sleeves-without-label/heineken_bw_clear.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Blond Beer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lager</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>2 Litres</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Brouwery', 'L.', 'Huyghe']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>The Netherlands</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Heineken Brewery</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/heineken-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lagunitas IPA - 2L SUB Keg</t>
+          <t>Birra Moretti L'Autentica - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12.23</t>
+          <t>https://www.beerwulf.com/globalassets/birra-moretti-lautentica---sub-keg_beer_15747_02.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>IPA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lager</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>2 Litres</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Wheat                                                                                                                                    Barley Malt</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Lagunitas', 'Brewing', 'Company']</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['Wheat', 'Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Birra Moretti</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/birra-moretti-lautentica-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tiger - 2L SUB Keg</t>
+          <t>Red Stripe - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>https://www.beerwulf.com/globalassets/red-stripe---8l-blade-keg_beer_29144_02.png</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -695,115 +859,201 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lager</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2 Litres</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>8 Litres</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['Tiger']</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Desnoes &amp; Geddes</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/red-stripe-8l-blade-keg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Heineken - 8L BLADE Keg</t>
+          <t>Tiger - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>36.99</t>
+          <t>https://www.beerwulf.com/globalassets/tiger-2l-keg_1_0.png</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lager</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8 Litres</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2 Litres</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>The Netherlands</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['Heineken', 'Brewery']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/tiger-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Desperados - 5L Draught Keg</t>
+          <t>Birra Moretti Baffo d'Oro - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>28.99</t>
+          <t>https://www.beerwulf.com/globalassets/birra-moretti-baffo-doro-2l-keg_1_0.png</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -813,170 +1063,271 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Lager</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5 Litres</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Barley                                                                                                                                    Barley Malt</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>2 Litres</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Desperados']</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Birra Moretti</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/birra-moretti-baffo-doro-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lagunitas IPA - 8L BLADE Keg</t>
+          <t>Puntigamer - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>44.99</t>
+          <t>https://www.beerwulf.com/globalassets/puntigamer---sub-keg_beer_23044_03.png</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>IPA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8 Litres</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Barley Malt                                                                                                                                    Wheat Malt</t>
+          <t>Lager</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>2 Litres</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Lagunitas', 'Brewing', 'Company']</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['Barley', 'Malt', 'Wheat', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/puntigamer-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Amstel - 8L BLADE Keg</t>
+          <t>Villacher Märzen - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>https://www.beerwulf.com/globalassets/villacher-marzen--8l-blade-keg_beer_24494_02.png</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Lager</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>8 Litres</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>The Netherlands</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/Villacher-Marzen-8L-BLADE-Keg-</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Puntigamer - 2L SUB Keg</t>
+          <t>Desperados - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>https://www.beerwulf.com/globalassets/catalog/beerwulf/beers/torps/full-sleeves-without-label/desperados_bw_clear.png</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -986,115 +1337,201 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Lager</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>2 Litres</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Barley Malt</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+          <t>Barley                                                                                                                                    Barley Malt</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Desperados</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/desperados-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Paulaner Weissbier - 5L Draught Keg Not Beertender Compatible</t>
+          <t>Zipfer Urtyp - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>26.09</t>
+          <t>https://www.beerwulf.com/globalassets/zipfer-urtyp-2l-keg_1_1.png</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>German Wheat Beer</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5 Litres</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Barley                                                                                                                                    Wheat Malt</t>
+          <t>Lager</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>2 Litres</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Paulaner', 'Brauerei']</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Barley', 'Wheat', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Brau Union</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/zipfer-urtyp-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Desperados - 8L BLADE Keg</t>
+          <t>Gösser Märzen - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>41.99</t>
+          <t>https://www.beerwulf.com/globalassets/gosser-marzen---2l-sub-keg_beer_27152_02.png</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1104,56 +1541,95 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Lager</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8 Litres</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Barley                                                                                                                                    Barley Malt</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>2 Litres</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Desperados']</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Brau Union</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/gosser-marzen-2l-sub-keg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Messina Cristalli Di Sale - 8L BLADE Keg</t>
+          <t>Birra Moretti La Rossa - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>39.99</t>
+          <t>https://www.beerwulf.com/globalassets/birra-moretti-la-rossatorp2_14820_0.png</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1163,402 +1639,679 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8 Litres</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>Bock Beer</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2 Litres</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>7.2%</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>['Birrificio', 'Messina']</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Birra Moretti</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/birra-moretti-la-rossa-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Heineken Silver - 8L BLADE Keg</t>
+          <t>Lagunitas IPA - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>36.99</t>
+          <t>https://www.beerwulf.com/globalassets/lagunitas-ipa-2l-keg_1_02.png</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8 Litres</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Barley Malt</t>
+          <t>IPA</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>The Netherlands</t>
+          <t>2 Litres</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Heineken', 'Brewery']</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+          <t>Wheat                                                                                                                                    Barley Malt</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Lagunitas Brewing Company</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/lagunitas-ipa-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lagunitas IPA - 5L Draught Keg</t>
+          <t>Alfa - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24.39</t>
+          <t>https://www.beerwulf.com/globalassets/alfa---8l-blade-keg_beer_23909_0.png</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>IPA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5 Litres</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Barley Malt                                                                                                                                    Wheat</t>
+          <t>Lager</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>8 Litres</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Barley', 'Malt', 'Wheat']</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/alfa-8l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Villacher Märzen - 8L BLADE Keg</t>
+          <t>Gösser Zwickl - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>39.99</t>
+          <t>https://www.beerwulf.com/globalassets/gosser-zwickl---blade-keg_beer_22668_04.png</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Lager</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>8 Litres</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Barley Malt</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Barley Malt                                                                                                                                    Wheat Malt</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Brau Union</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/gosser-zwickl-8l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Birra Moretti Baffo d'Oro - 8L BLADE Keg</t>
+          <t>Lagunitas IPA - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>38.99</t>
+          <t>https://www.beerwulf.com/globalassets/lagunitas-ipa---blade-keg_beer_22312_04.png</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>44.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>IPA</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>8 Litres</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Barley Malt</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Birra', 'Moretti']</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+          <t>Barley Malt                                                                                                                                    Wheat Malt</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Lagunitas Brewing Company</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/lagunitas-ipa-8l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dark Arts Surreal Stout - 2L SUB Keg</t>
+          <t>Edelweiss Wheat - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17.49</t>
+          <t>https://www.beerwulf.com/globalassets/edelweiss-wheat_beer_23557_02.png</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>33.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Porter &amp; Stout</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2 Litres</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>German Wheat Beer</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>8 Litres</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['Barley', 'Malt', 'Oat', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+          <t>Barley Malt                                                                                                                                    Wheat Malt</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/edelweiss-wheat-8l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Strongbow Original Cider - 2L SUB Keg</t>
+          <t>La Chouffe Blonde D'ardenne - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>https://www.beerwulf.com/globalassets/catalog/beerwulf/beers/torps/with-label/torp_2lkeg_la_chouffe_blond.png</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Cider</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Blond Beer</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>2 Litres</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['Sulfite']</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Brasserie d'Achouffe</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/la-chouffe-blonde-dardenne-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>La Chouffe Blonde D'ardenne - 2L SUB Keg</t>
+          <t>Affligem Blond - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18.29</t>
+          <t>https://www.beerwulf.com/globalassets/affligem-blond-2l-keg_1_02.png</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1568,115 +2321,201 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Blond Beer</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>2 Litres</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>8.0%</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>['Brasserie', "d'Achouffe"]</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Affligem Brouwerij</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/affligem-blond-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Heineken - 2L SUB Keg</t>
+          <t>Delirium Tremens - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>https://www.beerwulf.com/globalassets/delirium-tremens-2l-keg_1_0.png</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>19.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Blond Beer</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>2 Litres</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>The Netherlands</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>['Heineken', 'Brewery']</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Brouwery L. Huyghe</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/delirium-tremens-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Zipfer Urtyp - 2L SUB Keg</t>
+          <t>Heineken - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>https://www.beerwulf.com/globalassets/heineken-8l-blade-keg_1_02.png</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1686,178 +2525,271 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Lager</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2 Litres</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>8 Litres</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>['Brau', 'Union']</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>['Magnum', 'Perle', 'Tettnanger', 'Spalter', 'Select']</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
+          <t>The Netherlands</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Heineken Brewery</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/heineken-blade-8l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Affligem Blond - 5L Draught Keg</t>
+          <t>Desperados - 5L Draught Keg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>https://www.beerwulf.com/globalassets/catalog/beerwulf/beers/5l-keg/draught_keg_5l_desperados_original.png</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>28.99</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Blond Beer</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Lager</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>5 Litres</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Barley Malt</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Affligem', 'Brouwerij']</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+          <t>Barley                                                                                                                                    Barley Malt</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Desperados</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/desperados-5l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gösser Radler - 2L SUB Keg</t>
+          <t>Strongbow Original Cider - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>https://www.beerwulf.com/globalassets/strongbow-original-cider---sub-keg_beer_22287_0.png</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cider</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>2 Litres</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Barley Malt</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/strongbow-original-cider--2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Birra Moretti L'Autentica - 2L SUB Keg</t>
+          <t>Amstel - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>11.59</t>
+          <t>https://www.beerwulf.com/globalassets/amstel---blade-keg_beer_22674_03.png</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1867,119 +2799,145 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>35.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Lager</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2 Litres</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Barley Malt</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>8 Litres</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Birra', 'Moretti']</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>The Netherlands</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/amstel-8l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Zipfer Urtyp - 8L BLADE Keg</t>
+          <t>Paulaner Weissbier - 5L Draught Keg Not Beertender Compatible</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>39.99</t>
+          <t>https://www.beerwulf.com/globalassets/paulaner-weissbier---draught-keg_beer_23351_0.png</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>8 Litres</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Barley Malt</t>
+          <t>German Wheat Beer</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>5 Litres</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Brau', 'Union']</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['Barley', 'Malt']</t>
+          <t>Barley                                                                                                                                    Wheat Malt</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['Magnum', 'Perle', 'Tettnanger', 'Spalter', 'Select']</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr"/>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Paulaner Brauerei</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/paulaner-weissbier-5L-Keg</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>La Cristal IPA du Mont Blanc - 2L SUB Keg</t>
+          <t>Desperados - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>17.29</t>
+          <t>https://www.beerwulf.com/globalassets/desperados-blade-keg_beer_23543_05.png</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1989,347 +2947,581 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>41.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>IPA</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2 Litres</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Barley Malt</t>
+          <t>Lager</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>8 Litres</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>5.9%</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Barley                                                                                                                                    Barley Malt</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>['Brasserie', 'Du', 'Mont', 'Blanc']</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Desperados</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/desperados-8L-keg</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Strongbow Dark Fruit - 8L BLADE Keg</t>
+          <t>Messina Cristalli Di Sale - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>https://www.beerwulf.com/globalassets/messina-cristalli-di-sale---8l-blade-keg_beer_23827_03.png</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>39.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Cider</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Lager</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>8 Litres</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Birrificio Messina</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/messina-cristalli-di-sale-8L-keg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Gösser Märzen - 2L SUB Keg</t>
+          <t>Gallia West IPA - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>https://www.beerwulf.com/globalassets/gallia-west-ipa---sub-keg-v2_beer_24042_0.png</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>IPA</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>2 Litres</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Brau', 'Union']</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Gallia</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/gallia-west-ipa-2l--keg</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Puntigamer - 8L BLADE Keg</t>
+          <t>Heineken Silver - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>39.99</t>
+          <t>https://www.beerwulf.com/globalassets/heineken-silver---8l-blade-keg_beer_24084_02.png</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>36.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Lager</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>8 Litres</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>['Brau', 'Union']</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>The Netherlands</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Heineken Brewery</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/heineken-silver-8l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tiger - 8L BLADE Keg</t>
+          <t>Lagunitas IPA - 5L Draught Keg</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>37.99</t>
+          <t>https://www.beerwulf.com/globalassets/lagunitas-ipa---5l-draught-keg_beer_24142_0.jpeg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>8 Litres</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Barley Malt</t>
+          <t>IPA</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>5 Litres</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
+          <t>Barley Malt                                                                                                                                    Wheat</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/lagunitas-ipa-5L-draught-keg</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Amstel -  2L SUB Keg</t>
+          <t>Grisette Blanche Bio - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>https://www.beerwulf.com/globalassets/grisette-blanche-bio-2l-sub-keg_beer_24429_0.png</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>White Beer</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>2 Litres</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Barley Malt</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>The Netherlands</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Amstel']</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Barley', 'Malt']</t>
+          <t>Oat Malt                                                                                                                                    Barley Malt                                                                                                                                    Wheat Malt</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['Hops']</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr"/>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>St Feuillien</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/Grisette-Blanche--Bio-2L-SUB-Keg</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Desperados - 2L SUB Keg</t>
+          <t>Birra Moretti Baffo d'Oro - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>https://www.beerwulf.com/globalassets/birra-moretti-baffo-doro---8l-blade-keg_beer_24878_02.png</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2339,233 +3531,377 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Lager</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2 Litres</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Barley                                                                                                                                    Barley Malt</t>
-        </is>
-      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>8 Litres</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Desperados']</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Birra Moretti</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/birra-moretti-baffo-doro-8L-blade-keg</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Birra Moretti Baffo d'Oro - 2L SUB Keg</t>
+          <t>St. Feuillien Blond - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>https://www.beerwulf.com/globalassets/st.-feuillien-blond-torp---2l-keg_1_1.png</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>In Stock</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Lager</t>
+          <t>17.39</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Blond Beer</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>2 Litres</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>['Birra', 'Moretti']</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>St Feuillien</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/st-feuillien-blond-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cruzcampo Gran Reserva - 2L SUB Keg</t>
+          <t>Affligem Blond - 5L Draught Keg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>https://www.beerwulf.com/globalassets/affligem-blond-5l-keg_1_02.png</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2 Litres</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
+          <t>Blond Beer</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>5 Litres</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>['Heineken', 'Spain']</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Affligem Brouwerij</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/affligem-blond-5l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Heineken - 5L Draught Keg</t>
+          <t>Gösser Radler - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>26.49</t>
+          <t>https://www.beerwulf.com/globalassets/gosser-radler---2l-keg_1_1.png</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Lager</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>5 Litres</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2 Litres</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>The Netherlands</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>['Heineken', 'Brewery']</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/gosser-radler-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pelforth Blonde - 5L Draught Keg</t>
+          <t>Zipfer Urtyp - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>27.49</t>
+          <t>https://www.beerwulf.com/globalassets/zipfer-urtyp---blade-keg_beer_15790_03.png</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2575,119 +3911,197 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>39.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Blond Beer</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5 Litres</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>5.8%</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
+          <t>Lager</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>8 Litres</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>['Heineken', 'Brewery']</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Brau Union</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/zipfer-urtyp-8l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Heineken 0.0 - 8L BLADE Keg</t>
+          <t>Tiger - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>25.99</t>
+          <t>https://www.beerwulf.com/globalassets/tiger---blade-keg_beer_22201_03.png</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Lager</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>8 Litres</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>The Netherlands</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>['Heineken', 'Brewery']</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>EnergyInKcal21kJ / kcalFat0gSaturatedFat0gCarbohydrates4.8gSugars1.3gProtein0gSalt&lt; 0.01g</t>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/tiger--8l-keg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Birra Moretti La Rossa - 2L SUB Keg</t>
+          <t>Puntigamer - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>https://www.beerwulf.com/globalassets/puntigamer---blade-keg_beer_22318_05.png</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2697,115 +4111,153 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>39.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Bock Beer</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2 Litres</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>7.2%</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>Lager</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>8 Litres</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>['Birra', 'Moretti']</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Brau Union</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/puntigamer-8l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Affligem Blond - 8L BLADE Keg</t>
+          <t>SOL - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>43.99</t>
+          <t>https://www.beerwulf.com/globalassets/sol---8l-blade-keg_beer_23832_04.png</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Blond Beer</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Lager</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>8 Litres</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Cervecería Cuauhtémoc Moctezuma</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/sol-8l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Apfel Räuber - 8L BLADE Keg</t>
+          <t>La Cristal IPA du Mont Blanc - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>36.99</t>
+          <t>https://www.beerwulf.com/globalassets/la-cristal-ipa-du-mont-blanc-v2_beer_24034_0.png</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2815,292 +4267,475 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Cider</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>8 Litres</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>IPA</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>2 Litres</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Sulfite']</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Brasserie Du Mont Blanc</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/la-cristal-ipa-du-mont-blanc-2l-keg-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Gösser Zwickl - 8L BLADE Keg</t>
+          <t>Strongbow Dark Fruit - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>39.09</t>
+          <t>https://www.beerwulf.com/globalassets/strongbow-dark-fruits-8l-keg_beer_24297_03.png</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Cider</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>8 Litres</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Barley Malt                                                                                                                                    Wheat Malt</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Brau', 'Union']</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>['Celaia']</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/strongbow-dark-fruits-8l-bladekeg</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Paulaner Münchner Hell - 5L Draught Keg Not Beertender Compatible</t>
+          <t>Affligem Tripel - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>32.49</t>
+          <t>https://www.beerwulf.com/globalassets/affligem-tripel---2l-sub-keg-v3_beer_29586_04.png</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>In Stock</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Lager</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>5 Litres</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>Out of Stock</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
+          <t>Tripel Beer</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2 Litres</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>['Paulaner', 'Brauerei']</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Affligem Brouwerij</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/affligem-tripel-2l--keg</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Affligem Blanche - 5L Draught Keg</t>
+          <t>Heineken - 5L Draught Keg</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>27.99</t>
+          <t>https://www.beerwulf.com/globalassets/heineken-5l-keg_1_04.png</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>White Beer</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Lager</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>5 Litres</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>The Netherlands</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Heineken Brewery</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/heineken-5l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Edelweiss Wheat - 8L BLADE Keg</t>
+          <t>Pelforth Blonde - 5L Draught Keg</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>39.99</t>
+          <t>https://www.beerwulf.com/globalassets/pelforth-blonde-5l-keg_1_3.png</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>German Wheat Beer</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>8 Litres</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Barley Malt                                                                                                                                    Wheat Malt</t>
+          <t>Blond Beer</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>5 Litres</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Barley', 'Malt', 'Wheat', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Heineken Brewery</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/pelforth-blonde-5l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Brixton Reliance - 8L BLADE Keg</t>
+          <t>Birra Moretti L'Autentica - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>34.76</t>
+          <t>https://www.beerwulf.com/globalassets/birra-moretti-ricetta-originale-blade-8l-keg_1_07.png</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3110,174 +4745,299 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Pale Ale</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Lager</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>8 Litres</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>['Brixton', 'Brewery']</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Birra Moretti</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/birra-moretti-ricetta-originale-blade-8l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Brixton Low Voltage - 2L SUB Keg</t>
+          <t>Heineken 0.0 - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>https://www.beerwulf.com/globalassets/heineken-0.0-blade-8l-keg_1_03.png</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>IPA</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2 Litres</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Barley Malt                                                                                                                                    Oat</t>
+          <t>Lager</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>8 Litres</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Brixton', 'Brewery']</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['Barley', 'Malt', 'Oat']</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>The Netherlands</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Heineken Brewery</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/heineken-zero-blade-8l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Paulaner Weissbier - 2L SUB Keg</t>
+          <t>Affligem Blond - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>14.29</t>
+          <t>https://www.beerwulf.com/globalassets/affligem-blond-8l-kegbladekeg8_15277_0.png</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>German Wheat Beer</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2 Litres</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Barley                                                                                                                                    Wheat Malt</t>
+          <t>Blond Beer</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>8 Litres</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Paulaner', 'Brauerei']</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['Barley', 'Wheat', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/affligem-blond-8l-keg-bladekeg-8</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fruh Kölsch - 2L SUB Keg</t>
+          <t>Apfel Räuber - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>14.29</t>
+          <t>https://www.beerwulf.com/globalassets/apfel-rauber---blade-keg_beer_15808_0.png</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3287,60 +5047,67 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>36.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2 Litres</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Barley Malt</t>
+          <t>Cider</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>8 Litres</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['Bitter', 'Hops', 'Aroma', 'Hops', 'Finest', 'Aroma', 'Hops']</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/apfel-rauber-8l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Orchard Thieves - 8L BLADE Keg</t>
+          <t>Gösser Märzen - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>36.99</t>
+          <t>https://www.beerwulf.com/globalassets/gosser-marzen---blade-keg_beer_22315_08.png</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3350,284 +5117,451 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>39.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Cider</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Lager</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>8 Litres</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Orchard', 'Thieves']</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>['Sulfite']</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Brau Union</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/gosser-marzen-8l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Birra Moretti La Rossa - 8L BLADE Keg</t>
+          <t>Paulaner Münchner Hell - 5L Draught Keg Not Beertender Compatible</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>41.99</t>
+          <t>https://www.beerwulf.com/globalassets/paulaner-munchner-hell---draught-keg_beer_23349_0.png</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>32.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Bock Beer</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>8 Litres</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>7.2%</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
+          <t>Lager</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>5 Litres</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>['Birra', 'Moretti']</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Paulaner Brauerei</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/paulaner-munchner-hell-5L-keg</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BrewDog Punk IPA - 2L SUB Keg</t>
+          <t>Affligem Blanche - 5L Draught Keg</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>17.29</t>
+          <t>https://www.beerwulf.com/globalassets/affligem-blanche-draught-keg_beer_23393_02.jpeg</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>IPA</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2 Litres</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
+          <t>White Beer</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>5 Litres</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>['BrewDog']</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/affligem-blanche-5L-keg</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Linzer Bier - 8L BLADE Keg</t>
+          <t>Brixton Reliance - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>39.99</t>
+          <t>https://www.beerwulf.com/globalassets/brixton-reliance-blade-keg_beer_23851_05.png</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>42.49</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Pale Ale</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>8 Litres</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Brixton Brewery</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/brixton-reliance-8l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Krombacher Pils - 5L Draught Keg</t>
+          <t>Brixton Low Voltage - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>27.59</t>
+          <t>https://www.beerwulf.com/globalassets/brixton-low-voltage-torp-v2_beer_24031_02.png</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>5 Litres</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Barley Malt</t>
+          <t>IPA</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>2 Litres</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Krombacher']</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+          <t>Barley Malt                                                                                                                                    Oat</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Brixton Brewery</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/brixton-low-voltage-2l-keg</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Edelweiss Hefetrüb - 8L BLADE Keg</t>
+          <t>Paulaner Weissbier - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>33.14</t>
+          <t>https://www.beerwulf.com/globalassets/-paulaner-weissbier---sub-keg-v2_beer_24035_0.png</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3637,174 +5571,223 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>German Wheat Beer</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>8 Litres</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Barley Malt                                                                                                                                    Wheat Malt</t>
-        </is>
-      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>2 Litres</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>['Barley', 'Malt', 'Wheat', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+          <t>Barley                                                                                                                                    Wheat Malt</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Paulaner Brauerei</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/paulaner-weissbier-2l--keg</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Red Stripe - 8L BLADE Keg</t>
+          <t>Fruh Kölsch - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>36.99</t>
+          <t>https://www.beerwulf.com/globalassets/fruh-kolsch---2l-sub-keg_beer_24139_02.png</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Lager</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>8 Litres</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2 Litres</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Jamaica</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>['Desnoes', '&amp;', 'Geddes']</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/Fruh-Kolsch-2L-SUB-Keg</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Birra Moretti L'Autentica - 8L BLADE Keg</t>
+          <t>Orchard Thieves - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>38.99</t>
+          <t>https://www.beerwulf.com/globalassets/orchard-thieves-8l-blade-keg_beer_24431_04.png</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>36.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Cider</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>8 Litres</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Barley Malt</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Birra', 'Moretti']</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>['Wheat']</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Orchard Thieves</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/Orchard-Thieves-8L-BLADE-Keg</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Gösser Märzen - 8L BLADE Keg</t>
+          <t>Birra Moretti La Rossa - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>33.23</t>
+          <t>https://www.beerwulf.com/globalassets/birra-moretti-la-rossa---8l-blade-keg_beer_24879_02.png</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3814,292 +5797,447 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>41.99</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Lager</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Bock Beer</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>8 Litres</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Brau', 'Union']</t>
+          <t>7.2%</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+          <t>Barley Malt</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Birra Moretti</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/birra-moretti-la-rossa-8L-blade-keg</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Gallia West IPA - 2L SUB Keg</t>
+          <t>BrewDog Punk IPA - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>https://www.beerwulf.com/globalassets/brewdog-punk-ipa---2l-sub-keg_beer_25365_0.png</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>17.29</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>Out of Stock</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>IPA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>2 Litres</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>['Gallia']</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>BrewDog</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/brewdog-punk-ipa-2L-sub-keg</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Grisette Blanche Bio - 2L SUB Keg</t>
+          <t>Linzer Bier - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>15.29</t>
+          <t>https://www.beerwulf.com/globalassets/linzer-bier_beer_26648_03.png</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Out of Stock</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>White Beer</t>
+          <t>39.99</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2 Litres</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>In Stock</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Oat Malt                                                                                                                                    Barley Malt                                                                                                                                    Wheat Malt</t>
+          <t>Lager</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>8 Litres</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['St', 'Feuillien']</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>['Oat', 'Malt', 'Barley', 'Malt', 'Wheat', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/linzer-bier-8L-blade-keg</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Affligem Dubbel - 2L SUB Keg</t>
+          <t>Krombacher Pils - 5L Draught Keg</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11.99</t>
+          <t>https://www.beerwulf.com/globalassets/krombacher-pils---5l-draught-keg_beer_27841_03.png</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Out of Stock</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Dubbel Beer</t>
+          <t>22.07</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2 Litres</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>In Stock</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
+          <t>Lager</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>5 Litres</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Krombacher</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/krombacher-pils-5l-draught-keg</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Gösser Zwickl - 2L SUB Keg</t>
+          <t>Edelweiss Hefetrüb - 8L BLADE Keg</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>https://www.beerwulf.com/globalassets/edelweiss-hefetrub---8l-blade-keg--new_beer_29220_0.jpeg</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Out of Stock</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Lager</t>
+          <t>39.99</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2 Litres</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>In Stock</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
+          <t>German Wheat Beer</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>8 Litres</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
           <t>Barley Malt                                                                                                                                    Wheat Malt</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>['Brau', 'Union']</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>['Celaia']</t>
-        </is>
-      </c>
       <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/edelweiss-hefetrub-8l-blade-keg</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>St. Feuillien Blond - 2L SUB Keg</t>
+          <t>Dark Arts Surreal Stout - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>17.39</t>
+          <t>https://www.beerwulf.com/globalassets/dark-arts-surreal-stout---2l-sub-keg_beer_27935_0.png</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4109,56 +6247,67 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>17.49</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>Out of Stock</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Blond Beer</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Porter &amp; Stout</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>2 Litres</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Barley Malt</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['St', 'Feuillien']</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
+          <t>6.0%</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/dark-arts-surreal-stout-2l-sub-keg</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOL - 8L BLADE Keg</t>
+          <t>Cruzcampo Gran Reserva - 2L SUB Keg</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>37.89</t>
+          <t>https://www.beerwulf.com/globalassets/cruzcampo-gran-reserva-2l-keg_1_1.png</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4168,164 +6317,89 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>Out of Stock</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Lager</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>8 Litres</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2 Litres</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>Barley Malt</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>['Cervecería', 'Cuauhtémoc', 'Moctezuma']</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>['None']</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Zundert 10 Quadrupel Trappistbeer - 2L SUB Keg</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>19.99</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Out of Stock</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Quadrupel Beer</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2 Litres</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>10.0%</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Barley Malt</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>The Netherlands</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Affligem Tripel - 2L SUB Keg</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Out of Stock</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Tripel Beer</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2 Litres</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Barley Malt</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>['Affligem', 'Brouwerij']</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>['Barley', 'Malt']</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Heineken Spain</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>https://www.beerwulf.com/en-gb/p/beers/cruzcampo-gran-reserva-2l-keg</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
